--- a/bloodDonationTable102.xlsx
+++ b/bloodDonationTable102.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timnas/Documents/projects/BloodDonation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D93B534-0EBC-B04D-B8F1-35289A5F4233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374925B0-E264-984E-B22A-C319D2FF020D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="360">
   <si>
     <t>תאריך הניסוי</t>
   </si>
@@ -50,9 +50,6 @@
     <t>אישור על ידי מד"א</t>
   </si>
   <si>
-    <t>תחילת הקלטה בNH</t>
-  </si>
-  <si>
     <t>חיבור לדופק - שעה</t>
   </si>
   <si>
@@ -65,18 +62,9 @@
     <t>חיבור לל"ד - שעה</t>
   </si>
   <si>
-    <t>פתיחת וסת</t>
-  </si>
-  <si>
-    <t>סיום שאיבה</t>
-  </si>
-  <si>
     <t>המשך ניטור זמן סיום</t>
   </si>
   <si>
-    <t>מדידת נשימה 15 דקות במנוחה זמן סיום</t>
-  </si>
-  <si>
     <t>מילוי שאלון</t>
   </si>
   <si>
@@ -326,9 +314,6 @@
     <t>133/78</t>
   </si>
   <si>
-    <t>שעת דקירה</t>
-  </si>
-  <si>
     <t>שעת מיקום על מיטה</t>
   </si>
   <si>
@@ -1113,6 +1098,24 @@
   </si>
   <si>
     <t>מעט, החל מלקראת הסוך</t>
+  </si>
+  <si>
+    <t>NH_recording_start</t>
+  </si>
+  <si>
+    <t>end_15min_after_recording</t>
+  </si>
+  <si>
+    <t>open_flow</t>
+  </si>
+  <si>
+    <t>needle_in</t>
+  </si>
+  <si>
+    <t>donation_end</t>
+  </si>
+  <si>
+    <t>משקל שקית</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1189,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1469,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CV18" sqref="CV18"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CL19" sqref="CL19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1792,312 +1795,312 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="U2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Z2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AA2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AB2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AC2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AD2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AE2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AG2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AI2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AK2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AO2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AP2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AQ2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AR2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AS2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AT2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AU2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AV2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AW2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AX2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AY2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="AZ2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="BA2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="BB2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="BC2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="BD2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="BE2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="BF2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="BG2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="BH2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="BI2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="BJ2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="BK2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="BL2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="BM2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="BN2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="BO2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="BP2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="BQ2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="BR2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="BS2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="BT2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="BU2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="BV2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="BW2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="BX2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="BY2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="BZ2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="CA2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="CB2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="CC2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="CD2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="CE2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="CF2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="CG2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="CH2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="CI2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="CJ2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="CK2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="CL2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="CM2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="CN2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="CO2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="CP2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="CQ2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="CR2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="CS2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="CT2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="CU2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="CV2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="CW2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="CX2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2405,310 +2408,310 @@
     </row>
     <row r="4" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="S4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="V4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="W4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="X4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AD4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AK4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AN4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AO4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AQ4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AR4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AS4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AT4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AU4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AV4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AW4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AX4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AZ4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BA4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BB4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BC4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BD4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BE4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BF4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BG4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BH4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BI4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BJ4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BK4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BL4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BM4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BN4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BO4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BP4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BQ4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BR4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BS4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="BT4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BU4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BV4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BW4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BX4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BY4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BZ4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CA4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CB4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CC4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CD4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="CE4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CF4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CG4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="CH4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CI4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CJ4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CK4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CL4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CM4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CN4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CO4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CP4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="CQ4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="CR4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="CS4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="CT4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="CU4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="CV4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="CW4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="CX4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:102" x14ac:dyDescent="0.2">
@@ -2716,307 +2719,307 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="Q5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="V5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="W5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AA5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AF5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AI5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AK5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AL5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AM5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AN5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AO5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AP5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AQ5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AR5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AS5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AT5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AU5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AV5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AW5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AX5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AY5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AZ5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BA5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BB5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BC5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BD5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BE5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BF5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BG5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BH5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BI5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BJ5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BK5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BL5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BM5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BN5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BO5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BP5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BQ5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BR5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BS5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BT5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="BU5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BV5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="BW5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BX5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="BY5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="BZ5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="CA5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="CB5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CC5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CD5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CE5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CF5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="CG5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CH5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CI5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CJ5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CK5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CL5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CM5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CN5" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="CO5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="CP5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="CQ5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="CR5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="CS5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="CT5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CU5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="CV5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="CW5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="CX5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:102" x14ac:dyDescent="0.2">
@@ -3264,7 +3267,7 @@
         <v>0.61111111111111116</v>
       </c>
       <c r="CD6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CE6" s="1">
         <v>0.53402777777777777</v>
@@ -3288,7 +3291,7 @@
         <v>0.68055555555555558</v>
       </c>
       <c r="CL6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CM6" s="1">
         <v>0.70277777777777772</v>
@@ -3332,312 +3335,312 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="T7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="W7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AQ7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AT7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AU7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AW7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AY7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BC7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BD7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BE7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BF7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BG7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BH7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BI7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BJ7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BK7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BL7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BM7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BN7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BO7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BP7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BQ7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BR7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BS7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BT7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BU7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BV7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BW7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BX7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BY7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BZ7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CA7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CB7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CC7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CD7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CE7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CF7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CG7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CH7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CI7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CJ7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CK7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CL7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CM7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CN7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CO7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CP7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CQ7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CR7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CS7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CT7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CU7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CV7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CW7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CX7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>4</v>
+        <v>354</v>
       </c>
       <c r="B8" s="1">
         <v>0.41319444444444442</v>
@@ -3778,7 +3781,7 @@
         <v>0.44861111111111113</v>
       </c>
       <c r="AV8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW8" s="1">
         <v>0.5756944444444444</v>
@@ -3945,7 +3948,7 @@
     </row>
     <row r="9" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B9">
         <v>87</v>
@@ -4155,7 +4158,7 @@
         <v>71</v>
       </c>
       <c r="BS9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BT9">
         <v>75</v>
@@ -4253,7 +4256,7 @@
     </row>
     <row r="10" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <v>0.41666666666666669</v>
@@ -4561,7 +4564,7 @@
     </row>
     <row r="11" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B11">
         <v>96</v>
@@ -4759,7 +4762,7 @@
         <v>98</v>
       </c>
       <c r="BO11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BP11">
         <v>98</v>
@@ -4771,7 +4774,7 @@
         <v>98</v>
       </c>
       <c r="BS11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BT11">
         <v>98</v>
@@ -4869,7 +4872,7 @@
     </row>
     <row r="12" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <v>0.41666666666666669</v>
@@ -4881,7 +4884,7 @@
         <v>0.56458333333333333</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F12" s="1">
         <v>0.42638888888888887</v>
@@ -5177,315 +5180,315 @@
     </row>
     <row r="13" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>46</v>
+      </c>
+      <c r="R13" t="s">
+        <v>47</v>
+      </c>
+      <c r="S13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U13" t="s">
+        <v>55</v>
+      </c>
+      <c r="V13" t="s">
+        <v>56</v>
+      </c>
+      <c r="W13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X13" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>43</v>
-      </c>
-      <c r="O13" t="s">
-        <v>45</v>
-      </c>
-      <c r="P13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>50</v>
-      </c>
-      <c r="R13" t="s">
-        <v>51</v>
-      </c>
-      <c r="S13" t="s">
-        <v>54</v>
-      </c>
-      <c r="T13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U13" t="s">
-        <v>59</v>
-      </c>
-      <c r="V13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W13" t="s">
-        <v>62</v>
-      </c>
-      <c r="X13" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>94</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>120</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>126</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS13" t="s">
+      <c r="AU13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV13" t="s">
         <v>166</v>
       </c>
-      <c r="AT13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>171</v>
-      </c>
       <c r="AW13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AX13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>182</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="BA13" t="s">
+        <v>100</v>
+      </c>
+      <c r="BB13" t="s">
         <v>185</v>
       </c>
-      <c r="AZ13" t="s">
-        <v>187</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>190</v>
-      </c>
       <c r="BC13" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BE13" t="s">
         <v>194</v>
       </c>
-      <c r="BD13" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>199</v>
-      </c>
       <c r="BF13" t="s">
+        <v>198</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI13" t="s">
         <v>203</v>
       </c>
-      <c r="BG13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>207</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>208</v>
-      </c>
       <c r="BJ13" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="BK13" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="BL13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="BM13" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="BN13" t="s">
+        <v>254</v>
+      </c>
+      <c r="BO13" t="s">
         <v>259</v>
       </c>
-      <c r="BO13" t="s">
+      <c r="BP13" t="s">
+        <v>262</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>259</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>265</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>51</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>271</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>273</v>
+      </c>
+      <c r="BV13" t="s">
         <v>264</v>
       </c>
-      <c r="BP13" t="s">
-        <v>267</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>264</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>270</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>55</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>276</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>278</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>269</v>
-      </c>
       <c r="BW13" t="s">
+        <v>277</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>280</v>
+      </c>
+      <c r="BY13" t="s">
         <v>282</v>
       </c>
-      <c r="BX13" t="s">
-        <v>285</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>287</v>
-      </c>
       <c r="BZ13" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="CA13" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="CB13" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="CC13" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="CD13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CE13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="CF13" t="s">
+        <v>298</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>299</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>302</v>
+      </c>
+      <c r="CI13" t="s">
         <v>303</v>
       </c>
-      <c r="CG13" t="s">
-        <v>304</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>307</v>
-      </c>
-      <c r="CI13" t="s">
+      <c r="CJ13" t="s">
+        <v>305</v>
+      </c>
+      <c r="CK13" t="s">
         <v>308</v>
       </c>
-      <c r="CJ13" t="s">
+      <c r="CL13" t="s">
         <v>310</v>
       </c>
-      <c r="CK13" t="s">
-        <v>313</v>
-      </c>
-      <c r="CL13" t="s">
+      <c r="CM13" t="s">
+        <v>312</v>
+      </c>
+      <c r="CN13" t="s">
         <v>315</v>
       </c>
-      <c r="CM13" t="s">
-        <v>317</v>
-      </c>
-      <c r="CN13" t="s">
+      <c r="CO13" t="s">
+        <v>318</v>
+      </c>
+      <c r="CP13" t="s">
         <v>320</v>
       </c>
-      <c r="CO13" t="s">
+      <c r="CQ13" t="s">
         <v>323</v>
       </c>
-      <c r="CP13" t="s">
-        <v>325</v>
-      </c>
-      <c r="CQ13" t="s">
-        <v>328</v>
-      </c>
       <c r="CR13" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="CS13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="CT13" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="CU13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="CV13" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="CW13" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="CX13" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <v>0.41666666666666669</v>
@@ -5497,7 +5500,7 @@
         <v>0.56736111111111109</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F14" s="1">
         <v>0.42638888888888887</v>
@@ -5793,7 +5796,7 @@
     </row>
     <row r="15" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1">
         <v>0.43055555555555558</v>
@@ -5889,13 +5892,13 @@
         <v>0.4770833333333333</v>
       </c>
       <c r="AG15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AH15" s="1">
         <v>0.55902777777777779</v>
       </c>
       <c r="AI15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ15" s="1">
         <v>0.62152777777777779</v>
@@ -5958,7 +5961,7 @@
         <v>0.5854166666666667</v>
       </c>
       <c r="BD15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BE15" s="1">
         <v>0.62083333333333335</v>
@@ -6042,7 +6045,7 @@
         <v>0.54722222222222228</v>
       </c>
       <c r="CF15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CG15" s="1">
         <v>0.59027777777777779</v>
@@ -6054,10 +6057,10 @@
         <v>0.6</v>
       </c>
       <c r="CJ15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CK15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CL15" s="1">
         <v>0.7104166666666667</v>
@@ -6101,16 +6104,16 @@
     </row>
     <row r="16" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>96</v>
+        <v>357</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E16" s="1">
         <v>0.43402777777777773</v>
@@ -6240,13 +6243,13 @@
         <v>0.47152777777777777</v>
       </c>
       <c r="AV16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW16" s="1">
         <v>0.58819444444444446</v>
       </c>
       <c r="AX16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AY16" s="1">
         <v>0.71944444444444444</v>
@@ -6264,7 +6267,7 @@
         <v>0.58750000000000002</v>
       </c>
       <c r="BD16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BE16" s="1">
         <v>0.62569444444444444</v>
@@ -6407,7 +6410,7 @@
     </row>
     <row r="17" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>9</v>
+        <v>356</v>
       </c>
       <c r="B17" s="1">
         <v>0.43194444444444446</v>
@@ -6512,7 +6515,7 @@
         <v>0.60277777777777775</v>
       </c>
       <c r="AJ17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AK17" s="1">
         <v>0.53888888888888886</v>
@@ -6572,7 +6575,7 @@
         <v>0.58750000000000002</v>
       </c>
       <c r="BD17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BE17" s="1">
         <v>0.62569444444444444</v>
@@ -6715,7 +6718,7 @@
     </row>
     <row r="18" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>10</v>
+        <v>358</v>
       </c>
       <c r="B18" s="1">
         <v>0.43472222222222223</v>
@@ -6880,7 +6883,7 @@
         <v>0.59444444444444444</v>
       </c>
       <c r="BD18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BE18" s="1">
         <v>0.63263888888888886</v>
@@ -6970,7 +6973,7 @@
         <v>0.59861111111111109</v>
       </c>
       <c r="CH18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CI18" s="1">
         <v>0.60833333333333328</v>
@@ -7023,7 +7026,7 @@
     </row>
     <row r="19" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B19">
         <v>604</v>
@@ -7065,7 +7068,7 @@
         <v>669</v>
       </c>
       <c r="O19" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P19">
         <v>681</v>
@@ -7152,7 +7155,7 @@
         <v>637</v>
       </c>
       <c r="AR19" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="AS19">
         <v>636</v>
@@ -7203,7 +7206,7 @@
         <v>664</v>
       </c>
       <c r="BI19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BJ19">
         <v>665</v>
@@ -7218,7 +7221,7 @@
         <v>639</v>
       </c>
       <c r="BN19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="BO19">
         <v>650</v>
@@ -7316,7 +7319,7 @@
       <c r="CT19">
         <v>661</v>
       </c>
-      <c r="CU19" s="5">
+      <c r="CU19">
         <v>589</v>
       </c>
       <c r="CV19">
@@ -7331,7 +7334,7 @@
     </row>
     <row r="20" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B20">
         <v>517</v>
@@ -7343,55 +7346,55 @@
         <v>447</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O20" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="P20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T20">
         <v>531</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V20">
         <v>475</v>
@@ -7436,7 +7439,7 @@
         <v>423</v>
       </c>
       <c r="AJ20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="AK20">
         <v>451</v>
@@ -7459,20 +7462,17 @@
       <c r="AQ20">
         <v>480</v>
       </c>
-      <c r="AR20" t="s">
-        <v>336</v>
-      </c>
       <c r="AS20">
         <v>479</v>
       </c>
       <c r="AT20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AU20">
         <v>476</v>
       </c>
       <c r="AV20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW20">
         <v>472</v>
@@ -7493,10 +7493,10 @@
         <v>512</v>
       </c>
       <c r="BC20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BD20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BE20">
         <v>505</v>
@@ -7525,9 +7525,6 @@
       <c r="BM20">
         <v>482</v>
       </c>
-      <c r="BN20" t="s">
-        <v>260</v>
-      </c>
       <c r="BO20">
         <v>493</v>
       </c>
@@ -7556,10 +7553,10 @@
         <v>493</v>
       </c>
       <c r="BX20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BY20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BZ20">
         <v>490</v>
@@ -7571,7 +7568,7 @@
         <v>487</v>
       </c>
       <c r="CC20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CD20">
         <v>503</v>
@@ -7586,16 +7583,16 @@
         <v>479</v>
       </c>
       <c r="CH20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CI20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CJ20">
         <v>480</v>
       </c>
       <c r="CK20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CL20">
         <v>512</v>
@@ -7616,7 +7613,7 @@
         <v>512</v>
       </c>
       <c r="CR20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CS20">
         <v>495</v>
@@ -7639,13 +7636,13 @@
     </row>
     <row r="21" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
         <v>0.44791666666666669</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1">
         <v>0.59861111111111109</v>
@@ -7690,7 +7687,7 @@
         <v>0.60902777777777783</v>
       </c>
       <c r="R21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="S21" s="1">
         <v>0.42152777777777778</v>
@@ -7834,7 +7831,7 @@
         <v>0.50069444444444444</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BO21" s="1">
         <v>0.54791666666666672</v>
@@ -7891,7 +7888,7 @@
         <v>0.57430555555555551</v>
       </c>
       <c r="CG21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CH21" s="1">
         <v>0.61250000000000004</v>
@@ -7924,7 +7921,7 @@
         <v>0.52777777777777779</v>
       </c>
       <c r="CR21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CS21" s="1">
         <v>0.66388888888888886</v>
@@ -7947,13 +7944,13 @@
     </row>
     <row r="22" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>12</v>
+        <v>355</v>
       </c>
       <c r="B22" s="1">
         <v>0.44513888888888892</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1">
         <v>0.59861111111111109</v>
@@ -8037,7 +8034,7 @@
         <v>0.62777777777777777</v>
       </c>
       <c r="AE22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AF22" s="1">
         <v>0.50277777777777777</v>
@@ -8130,7 +8127,7 @@
         <v>0.61319444444444449</v>
       </c>
       <c r="BJ22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BK22" s="1">
         <v>0.47847222222222224</v>
@@ -8142,7 +8139,7 @@
         <v>0.51111111111111107</v>
       </c>
       <c r="BN22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BO22" s="1">
         <v>0.55833333333333335</v>
@@ -8193,7 +8190,7 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="CE22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CF22" s="1">
         <v>0.58472222222222225</v>
@@ -8232,7 +8229,7 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="CR22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CS22" s="1">
         <v>0.6743055555555556</v>
@@ -8255,324 +8252,324 @@
     </row>
     <row r="23" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" t="s">
         <v>98</v>
       </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="I23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M23" t="s">
+        <v>142</v>
+      </c>
+      <c r="N23" t="s">
+        <v>143</v>
+      </c>
+      <c r="O23" t="s">
+        <v>144</v>
+      </c>
+      <c r="P23" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>146</v>
+      </c>
+      <c r="R23" t="s">
+        <v>113</v>
+      </c>
+      <c r="S23" t="s">
+        <v>147</v>
+      </c>
+      <c r="T23" t="s">
+        <v>148</v>
+      </c>
+      <c r="U23" t="s">
+        <v>149</v>
+      </c>
+      <c r="V23" t="s">
+        <v>151</v>
+      </c>
+      <c r="W23" t="s">
+        <v>150</v>
+      </c>
+      <c r="X23" t="s">
         <v>100</v>
       </c>
-      <c r="F23" t="s">
+      <c r="Y23" t="s">
         <v>101</v>
       </c>
-      <c r="G23" t="s">
+      <c r="Z23" t="s">
         <v>102</v>
       </c>
-      <c r="H23" t="s">
+      <c r="AA23" t="s">
         <v>103</v>
       </c>
-      <c r="I23" t="s">
+      <c r="AB23" t="s">
         <v>104</v>
       </c>
-      <c r="J23" t="s">
-        <v>144</v>
-      </c>
-      <c r="K23" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" t="s">
-        <v>146</v>
-      </c>
-      <c r="M23" t="s">
-        <v>147</v>
-      </c>
-      <c r="N23" t="s">
-        <v>148</v>
-      </c>
-      <c r="O23" t="s">
-        <v>149</v>
-      </c>
-      <c r="P23" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>151</v>
-      </c>
-      <c r="R23" t="s">
-        <v>118</v>
-      </c>
-      <c r="S23" t="s">
-        <v>152</v>
-      </c>
-      <c r="T23" t="s">
-        <v>153</v>
-      </c>
-      <c r="U23" t="s">
-        <v>154</v>
-      </c>
-      <c r="V23" t="s">
-        <v>156</v>
-      </c>
-      <c r="W23" t="s">
-        <v>155</v>
-      </c>
-      <c r="X23" t="s">
+      <c r="AC23" t="s">
         <v>105</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="AD23" t="s">
         <v>106</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AE23" t="s">
         <v>107</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AF23" t="s">
         <v>108</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AG23" t="s">
         <v>109</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AH23" t="s">
         <v>110</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AI23" t="s">
         <v>111</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AJ23" t="s">
         <v>112</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AK23" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL23" t="s">
         <v>113</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AM23" t="s">
         <v>114</v>
       </c>
-      <c r="AH23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AN23" t="s">
         <v>116</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM23" t="s">
+      <c r="AO23" t="s">
         <v>119</v>
       </c>
-      <c r="AN23" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>124</v>
-      </c>
       <c r="AP23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AQ23" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="AR23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AS23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV23" t="s">
         <v>167</v>
       </c>
-      <c r="AT23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>172</v>
-      </c>
       <c r="AW23" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AX23" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AY23" t="s">
+        <v>181</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB23" t="s">
         <v>186</v>
       </c>
-      <c r="AZ23" t="s">
-        <v>187</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>191</v>
-      </c>
       <c r="BC23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE23" t="s">
         <v>195</v>
       </c>
-      <c r="BD23" t="s">
-        <v>197</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>200</v>
-      </c>
       <c r="BF23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="BG23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="BH23" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="BI23" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="BJ23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="BK23" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="BL23" t="s">
+        <v>251</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>253</v>
+      </c>
+      <c r="BN23" t="s">
         <v>256</v>
       </c>
-      <c r="BM23" t="s">
-        <v>258</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>261</v>
-      </c>
       <c r="BO23" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="BP23" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="BQ23" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="BR23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="BS23" t="s">
+        <v>267</v>
+      </c>
+      <c r="BT23" t="s">
         <v>272</v>
       </c>
-      <c r="BT23" t="s">
-        <v>277</v>
-      </c>
       <c r="BU23" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="BV23" t="s">
+        <v>276</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>278</v>
+      </c>
+      <c r="BX23" t="s">
         <v>281</v>
       </c>
-      <c r="BW23" t="s">
+      <c r="BY23" t="s">
         <v>283</v>
       </c>
-      <c r="BX23" t="s">
-        <v>286</v>
-      </c>
-      <c r="BY23" t="s">
-        <v>288</v>
-      </c>
       <c r="BZ23" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="CA23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="CB23" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="CC23" t="s">
+        <v>291</v>
+      </c>
+      <c r="CD23" t="s">
         <v>296</v>
       </c>
-      <c r="CD23" t="s">
-        <v>301</v>
-      </c>
       <c r="CE23" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="CF23" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="CG23" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="CH23" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="CI23" t="s">
+        <v>304</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>306</v>
+      </c>
+      <c r="CK23" t="s">
         <v>309</v>
       </c>
-      <c r="CJ23" t="s">
+      <c r="CL23" t="s">
         <v>311</v>
       </c>
-      <c r="CK23" t="s">
-        <v>314</v>
-      </c>
-      <c r="CL23" t="s">
+      <c r="CM23" t="s">
+        <v>313</v>
+      </c>
+      <c r="CN23" t="s">
         <v>316</v>
       </c>
-      <c r="CM23" t="s">
-        <v>318</v>
-      </c>
-      <c r="CN23" t="s">
+      <c r="CO23" t="s">
+        <v>319</v>
+      </c>
+      <c r="CP23" t="s">
         <v>321</v>
       </c>
-      <c r="CO23" t="s">
-        <v>324</v>
-      </c>
-      <c r="CP23" t="s">
-        <v>326</v>
-      </c>
       <c r="CQ23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="CR23" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="CS23" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="CT23" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="CU23" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="CV23" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="CW23" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="CX23" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>68</v>
@@ -8692,28 +8689,28 @@
         <v>78</v>
       </c>
       <c r="AR24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS24">
         <v>77</v>
       </c>
       <c r="AT24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AU24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AV24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AX24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AY24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AZ24">
         <v>75</v>
@@ -8746,7 +8743,7 @@
         <v>93</v>
       </c>
       <c r="BJ24" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BK24">
         <v>74</v>
@@ -8758,7 +8755,7 @@
         <v>69</v>
       </c>
       <c r="BN24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BO24">
         <v>80</v>
@@ -8871,16 +8868,16 @@
     </row>
     <row r="25" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>69</v>
@@ -9000,28 +8997,28 @@
         <v>100</v>
       </c>
       <c r="AR25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AS25">
         <v>98</v>
       </c>
       <c r="AT25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AU25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AV25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AX25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AY25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AZ25">
         <v>99</v>
@@ -9054,7 +9051,7 @@
         <v>98</v>
       </c>
       <c r="BJ25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BK25">
         <v>99</v>
@@ -9066,7 +9063,7 @@
         <v>99</v>
       </c>
       <c r="BN25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BO25">
         <v>98</v>
@@ -9179,7 +9176,7 @@
     </row>
     <row r="26" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1">
         <v>0.4465277777777778</v>
@@ -9245,7 +9242,7 @@
         <v>0.5854166666666667</v>
       </c>
       <c r="W26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X26" s="1">
         <v>0.42777777777777781</v>
@@ -9263,7 +9260,7 @@
         <v>0.58680555555555558</v>
       </c>
       <c r="AC26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AD26" s="1">
         <v>0.61944444444444446</v>
@@ -9290,7 +9287,7 @@
         <v>0.55208333333333337</v>
       </c>
       <c r="AL26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AM26" s="1">
         <v>0.59513888888888888</v>
@@ -9320,7 +9317,7 @@
         <v>0.4861111111111111</v>
       </c>
       <c r="AV26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW26" s="1">
         <v>0.61319444444444449</v>
@@ -9332,7 +9329,7 @@
         <v>0.72986111111111107</v>
       </c>
       <c r="AZ26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BA26" s="1">
         <v>0.77777777777777779</v>
@@ -9347,7 +9344,7 @@
         <v>0.60555555555555551</v>
       </c>
       <c r="BE26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BF26" s="1">
         <v>0.51736111111111116</v>
@@ -9419,7 +9416,7 @@
         <v>0.63194444444444442</v>
       </c>
       <c r="CC26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CD26" s="1">
         <v>0.5625</v>
@@ -9476,7 +9473,7 @@
         <v>0.49722222222222223</v>
       </c>
       <c r="CV26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CW26" s="1">
         <v>0.62708333333333333</v>
@@ -9487,629 +9484,629 @@
     </row>
     <row r="27" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="R27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="T27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="U27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="V27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="W27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Y27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Z27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AA27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AB27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AD27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AG27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AH27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AI27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AJ27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AM27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AN27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AP27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AQ27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AT27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AU27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AV27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AW27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AX27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AY27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BB27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BD27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BE27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BF27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BG27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BH27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BI27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BJ27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BK27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BL27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BM27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BN27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BO27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BP27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BQ27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BR27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BS27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BT27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BU27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BV27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BW27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BX27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BY27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BZ27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CA27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CB27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CC27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CD27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CE27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CF27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CG27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CH27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CI27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CJ27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CK27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CL27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CM27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CN27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CO27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CP27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CQ27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CR27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CS27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CT27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CU27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CV27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CW27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CX27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s">
+        <v>152</v>
+      </c>
+      <c r="L28" t="s">
+        <v>153</v>
+      </c>
+      <c r="M28" t="s">
+        <v>36</v>
+      </c>
+      <c r="N28" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>154</v>
+      </c>
+      <c r="R28" t="s">
+        <v>51</v>
+      </c>
+      <c r="S28" t="s">
+        <v>52</v>
+      </c>
+      <c r="T28" t="s">
+        <v>51</v>
+      </c>
+      <c r="U28" t="s">
+        <v>155</v>
+      </c>
+      <c r="V28" t="s">
+        <v>57</v>
+      </c>
+      <c r="W28" t="s">
+        <v>156</v>
+      </c>
+      <c r="X28" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA28" t="s">
         <v>157</v>
       </c>
-      <c r="L28" t="s">
-        <v>158</v>
-      </c>
-      <c r="M28" t="s">
-        <v>40</v>
-      </c>
-      <c r="N28" t="s">
-        <v>44</v>
-      </c>
-      <c r="O28" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>159</v>
-      </c>
-      <c r="R28" t="s">
-        <v>55</v>
-      </c>
-      <c r="S28" t="s">
-        <v>56</v>
-      </c>
-      <c r="T28" t="s">
-        <v>55</v>
-      </c>
-      <c r="U28" t="s">
+      <c r="AB28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR28" t="s">
         <v>160</v>
       </c>
-      <c r="V28" t="s">
-        <v>61</v>
-      </c>
-      <c r="W28" t="s">
-        <v>161</v>
-      </c>
-      <c r="X28" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>165</v>
-      </c>
       <c r="AS28" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="AT28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AU28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AV28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AX28" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="AY28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AZ28" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="BA28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BB28" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="BC28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BD28" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="BE28" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="BF28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BG28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BH28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BI28" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="BJ28" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BK28" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="BL28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BM28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BN28" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="BO28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BP28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BQ28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BR28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BS28" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="BT28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BU28" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="BV28" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BW28" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="BX28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BY28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BZ28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CA28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CB28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CC28" t="s">
+        <v>292</v>
+      </c>
+      <c r="CD28" t="s">
         <v>297</v>
       </c>
-      <c r="CD28" t="s">
-        <v>302</v>
-      </c>
       <c r="CE28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CF28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CG28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="CH28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CI28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CJ28" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="CK28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CL28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CM28" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="CN28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CO28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CP28" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="CQ28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CR28" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="CS28" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="CT28" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="CU28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CV28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="CW28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CX28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B29" s="1">
         <v>0.44791666666666669</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1">
         <v>0.59236111111111112</v>
@@ -10124,7 +10121,7 @@
         <v>0.48819444444444443</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I29" s="1">
         <v>0.56944444444444442</v>
@@ -10169,7 +10166,7 @@
         <v>0.58611111111111114</v>
       </c>
       <c r="W29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X29" s="1">
         <v>0.43055555555555558</v>
@@ -10199,7 +10196,7 @@
         <v>0.49444444444444446</v>
       </c>
       <c r="AG29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AH29" s="1">
         <v>0.57222222222222219</v>
@@ -10259,7 +10256,7 @@
         <v>0.76527777777777772</v>
       </c>
       <c r="BA29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BB29" s="1">
         <v>0.47152777777777777</v>
@@ -10271,13 +10268,13 @@
         <v>0.60972222222222228</v>
       </c>
       <c r="BE29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BF29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BG29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BH29" s="1">
         <v>0.58333333333333337</v>
@@ -10298,13 +10295,13 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="BN29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BO29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BP29" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BQ29" s="1">
         <v>0.61944444444444446</v>
@@ -10346,13 +10343,13 @@
         <v>0.64444444444444449</v>
       </c>
       <c r="CD29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CE29" s="1">
         <v>0.56944444444444442</v>
       </c>
       <c r="CF29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CG29" s="1">
         <v>0.60277777777777775</v>
@@ -10411,7 +10408,7 @@
     </row>
     <row r="30" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B30">
         <v>83</v>
@@ -10456,7 +10453,7 @@
         <v>72</v>
       </c>
       <c r="P30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q30">
         <v>58</v>
@@ -10672,7 +10669,7 @@
         <v>79</v>
       </c>
       <c r="CJ30" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="CK30">
         <v>75</v>
@@ -10719,7 +10716,7 @@
     </row>
     <row r="31" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B31">
         <v>184</v>
@@ -10764,7 +10761,7 @@
         <v>179</v>
       </c>
       <c r="P31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q31">
         <v>170</v>
@@ -11027,7 +11024,7 @@
     </row>
     <row r="32" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B32">
         <v>21</v>
@@ -11335,1855 +11332,1867 @@
     </row>
     <row r="33" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="N33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="O33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Q33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="R33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="T33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="U33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="V33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="W33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="X33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Y33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="Z33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AA33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AB33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AC33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AD33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AE33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AF33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AG33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AH33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AI33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AJ33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AK33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AL33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AM33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AN33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AO33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AP33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AQ33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AR33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AS33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AT33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AU33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AV33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AW33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AX33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AY33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AZ33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BA33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BB33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BC33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BD33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BE33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BF33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BG33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BH33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BI33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BJ33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BK33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BL33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BM33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BN33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BO33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BP33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BQ33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BR33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BS33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BT33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BU33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BV33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BW33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BX33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BY33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BZ33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CA33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CB33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CC33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CD33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CE33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CF33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CG33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CH33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CI33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CJ33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CK33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CL33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CM33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CN33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CO33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CP33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="CQ33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CR33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CS33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CT33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CU33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CV33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CW33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="CX33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B34" t="s">
         <v>213</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>218</v>
       </c>
-      <c r="C34" t="s">
-        <v>223</v>
-      </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
+        <v>213</v>
+      </c>
+      <c r="G34" t="s">
         <v>218</v>
       </c>
-      <c r="G34" t="s">
-        <v>223</v>
-      </c>
       <c r="H34" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34" t="s">
         <v>218</v>
       </c>
-      <c r="I34" t="s">
-        <v>223</v>
-      </c>
       <c r="J34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="N34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O34" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q34" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="R34" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="S34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="T34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="U34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="V34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="W34" t="s">
+        <v>213</v>
+      </c>
+      <c r="X34" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y34" t="s">
         <v>218</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Z34" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA34" t="s">
         <v>218</v>
       </c>
-      <c r="Y34" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>223</v>
-      </c>
       <c r="AB34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AC34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD34" t="s">
         <v>218</v>
       </c>
-      <c r="AD34" t="s">
-        <v>223</v>
-      </c>
       <c r="AE34" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="AF34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG34" t="s">
         <v>218</v>
       </c>
-      <c r="AG34" t="s">
-        <v>223</v>
-      </c>
       <c r="AH34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AI34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL34" t="s">
         <v>218</v>
       </c>
-      <c r="AJ34" t="s">
+      <c r="AM34" t="s">
         <v>218</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AN34" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO34" t="s">
         <v>218</v>
       </c>
-      <c r="AL34" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>223</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>225</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>223</v>
-      </c>
       <c r="AP34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AS34" t="s">
         <v>218</v>
       </c>
-      <c r="AQ34" t="s">
+      <c r="AT34" t="s">
         <v>218</v>
       </c>
-      <c r="AR34" t="s">
+      <c r="AU34" t="s">
         <v>218</v>
       </c>
-      <c r="AS34" t="s">
-        <v>223</v>
-      </c>
-      <c r="AT34" t="s">
-        <v>223</v>
-      </c>
-      <c r="AU34" t="s">
-        <v>223</v>
-      </c>
       <c r="AV34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AX34" t="s">
         <v>218</v>
       </c>
-      <c r="AW34" t="s">
+      <c r="AY34" t="s">
+        <v>213</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BC34" t="s">
         <v>218</v>
       </c>
-      <c r="AX34" t="s">
-        <v>223</v>
-      </c>
-      <c r="AY34" t="s">
+      <c r="BD34" t="s">
         <v>218</v>
       </c>
-      <c r="AZ34" t="s">
+      <c r="BE34" t="s">
         <v>218</v>
       </c>
-      <c r="BA34" t="s">
+      <c r="BF34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BG34" t="s">
         <v>218</v>
       </c>
-      <c r="BB34" t="s">
+      <c r="BH34" t="s">
+        <v>241</v>
+      </c>
+      <c r="BI34" t="s">
         <v>218</v>
       </c>
-      <c r="BC34" t="s">
-        <v>223</v>
-      </c>
-      <c r="BD34" t="s">
-        <v>223</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF34" t="s">
+      <c r="BJ34" t="s">
         <v>218</v>
       </c>
-      <c r="BG34" t="s">
-        <v>223</v>
-      </c>
-      <c r="BH34" t="s">
-        <v>246</v>
-      </c>
-      <c r="BI34" t="s">
-        <v>223</v>
-      </c>
-      <c r="BJ34" t="s">
-        <v>223</v>
-      </c>
       <c r="BK34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BM34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BO34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BQ34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BS34" t="s">
         <v>218</v>
       </c>
-      <c r="BL34" t="s">
+      <c r="BT34" t="s">
         <v>218</v>
       </c>
-      <c r="BM34" t="s">
+      <c r="BU34" t="s">
         <v>218</v>
       </c>
-      <c r="BN34" t="s">
+      <c r="BV34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BW34" t="s">
         <v>218</v>
       </c>
-      <c r="BO34" t="s">
+      <c r="BX34" t="s">
+        <v>220</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>213</v>
+      </c>
+      <c r="BZ34" t="s">
         <v>218</v>
       </c>
-      <c r="BP34" t="s">
+      <c r="CA34" t="s">
         <v>218</v>
       </c>
-      <c r="BQ34" t="s">
+      <c r="CB34" t="s">
         <v>218</v>
       </c>
-      <c r="BR34" t="s">
+      <c r="CC34" t="s">
         <v>218</v>
       </c>
-      <c r="BS34" t="s">
-        <v>223</v>
-      </c>
-      <c r="BT34" t="s">
-        <v>223</v>
-      </c>
-      <c r="BU34" t="s">
-        <v>223</v>
-      </c>
-      <c r="BV34" t="s">
+      <c r="CD34" t="s">
+        <v>213</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>220</v>
+      </c>
+      <c r="CF34" t="s">
         <v>218</v>
       </c>
-      <c r="BW34" t="s">
-        <v>223</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>225</v>
-      </c>
-      <c r="BY34" t="s">
+      <c r="CG34" t="s">
         <v>218</v>
       </c>
-      <c r="BZ34" t="s">
-        <v>223</v>
-      </c>
-      <c r="CA34" t="s">
-        <v>223</v>
-      </c>
-      <c r="CB34" t="s">
-        <v>223</v>
-      </c>
-      <c r="CC34" t="s">
-        <v>223</v>
-      </c>
-      <c r="CD34" t="s">
+      <c r="CH34" t="s">
+        <v>213</v>
+      </c>
+      <c r="CI34" t="s">
         <v>218</v>
       </c>
-      <c r="CE34" t="s">
-        <v>225</v>
-      </c>
-      <c r="CF34" t="s">
-        <v>223</v>
-      </c>
-      <c r="CG34" t="s">
-        <v>223</v>
-      </c>
-      <c r="CH34" t="s">
+      <c r="CJ34" t="s">
+        <v>213</v>
+      </c>
+      <c r="CK34" t="s">
+        <v>213</v>
+      </c>
+      <c r="CL34" t="s">
         <v>218</v>
       </c>
-      <c r="CI34" t="s">
-        <v>223</v>
-      </c>
-      <c r="CJ34" t="s">
+      <c r="CM34" t="s">
         <v>218</v>
       </c>
-      <c r="CK34" t="s">
+      <c r="CN34" t="s">
         <v>218</v>
       </c>
-      <c r="CL34" t="s">
-        <v>223</v>
-      </c>
-      <c r="CM34" t="s">
-        <v>223</v>
-      </c>
-      <c r="CN34" t="s">
-        <v>223</v>
-      </c>
       <c r="CO34" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="CP34" t="s">
+        <v>213</v>
+      </c>
+      <c r="CQ34" t="s">
         <v>218</v>
       </c>
-      <c r="CQ34" t="s">
-        <v>223</v>
-      </c>
       <c r="CR34" t="s">
+        <v>213</v>
+      </c>
+      <c r="CS34" t="s">
+        <v>220</v>
+      </c>
+      <c r="CT34" t="s">
+        <v>213</v>
+      </c>
+      <c r="CU34" t="s">
+        <v>213</v>
+      </c>
+      <c r="CV34" t="s">
+        <v>220</v>
+      </c>
+      <c r="CW34" t="s">
         <v>218</v>
       </c>
-      <c r="CS34" t="s">
-        <v>225</v>
-      </c>
-      <c r="CT34" t="s">
+      <c r="CX34" t="s">
         <v>218</v>
-      </c>
-      <c r="CU34" t="s">
-        <v>218</v>
-      </c>
-      <c r="CV34" t="s">
-        <v>225</v>
-      </c>
-      <c r="CW34" t="s">
-        <v>223</v>
-      </c>
-      <c r="CX34" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C35" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" t="s">
+        <v>216</v>
+      </c>
+      <c r="G35" t="s">
+        <v>232</v>
+      </c>
+      <c r="H35" t="s">
+        <v>232</v>
+      </c>
+      <c r="I35" t="s">
+        <v>215</v>
+      </c>
+      <c r="J35" t="s">
+        <v>234</v>
+      </c>
+      <c r="K35" t="s">
+        <v>215</v>
+      </c>
+      <c r="L35" t="s">
+        <v>215</v>
+      </c>
+      <c r="M35" t="s">
+        <v>215</v>
+      </c>
+      <c r="N35" t="s">
+        <v>215</v>
+      </c>
+      <c r="O35" t="s">
+        <v>215</v>
+      </c>
+      <c r="P35" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>232</v>
+      </c>
+      <c r="R35" t="s">
+        <v>221</v>
+      </c>
+      <c r="S35" t="s">
+        <v>223</v>
+      </c>
+      <c r="T35" t="s">
+        <v>215</v>
+      </c>
+      <c r="U35" t="s">
+        <v>215</v>
+      </c>
+      <c r="V35" t="s">
+        <v>215</v>
+      </c>
+      <c r="W35" t="s">
+        <v>216</v>
+      </c>
+      <c r="X35" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>228</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>225</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>232</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>216</v>
+      </c>
+      <c r="BA35" t="s">
         <v>214</v>
       </c>
-      <c r="B35" t="s">
-        <v>243</v>
-      </c>
-      <c r="C35" t="s">
-        <v>220</v>
-      </c>
-      <c r="D35" t="s">
-        <v>220</v>
-      </c>
-      <c r="E35" t="s">
-        <v>230</v>
-      </c>
-      <c r="F35" t="s">
-        <v>221</v>
-      </c>
-      <c r="G35" t="s">
-        <v>237</v>
-      </c>
-      <c r="H35" t="s">
-        <v>237</v>
-      </c>
-      <c r="I35" t="s">
-        <v>220</v>
-      </c>
-      <c r="J35" t="s">
-        <v>239</v>
-      </c>
-      <c r="K35" t="s">
-        <v>220</v>
-      </c>
-      <c r="L35" t="s">
-        <v>220</v>
-      </c>
-      <c r="M35" t="s">
-        <v>220</v>
-      </c>
-      <c r="N35" t="s">
-        <v>220</v>
-      </c>
-      <c r="O35" t="s">
-        <v>220</v>
-      </c>
-      <c r="P35" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>237</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="BB35" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD35" t="s">
+        <v>215</v>
+      </c>
+      <c r="BE35" t="s">
+        <v>215</v>
+      </c>
+      <c r="BF35" t="s">
+        <v>216</v>
+      </c>
+      <c r="BG35" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH35" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI35" t="s">
         <v>226</v>
       </c>
-      <c r="S35" t="s">
+      <c r="BJ35" t="s">
+        <v>215</v>
+      </c>
+      <c r="BK35" t="s">
+        <v>232</v>
+      </c>
+      <c r="BL35" t="s">
         <v>228</v>
       </c>
-      <c r="T35" t="s">
-        <v>220</v>
-      </c>
-      <c r="U35" t="s">
-        <v>220</v>
-      </c>
-      <c r="V35" t="s">
-        <v>220</v>
-      </c>
-      <c r="W35" t="s">
-        <v>221</v>
-      </c>
-      <c r="X35" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE35" t="s">
+      <c r="BM35" t="s">
         <v>232</v>
       </c>
-      <c r="AF35" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>230</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO35" t="s">
-        <v>236</v>
-      </c>
-      <c r="AP35" t="s">
-        <v>237</v>
-      </c>
-      <c r="AQ35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR35" t="s">
-        <v>221</v>
-      </c>
-      <c r="AS35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AT35" t="s">
-        <v>244</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AV35" t="s">
-        <v>222</v>
-      </c>
-      <c r="AW35" t="s">
-        <v>221</v>
-      </c>
-      <c r="AX35" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>233</v>
-      </c>
-      <c r="AZ35" t="s">
-        <v>221</v>
-      </c>
-      <c r="BA35" t="s">
-        <v>219</v>
-      </c>
-      <c r="BB35" t="s">
-        <v>220</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>220</v>
-      </c>
-      <c r="BD35" t="s">
-        <v>220</v>
-      </c>
-      <c r="BE35" t="s">
-        <v>220</v>
-      </c>
-      <c r="BF35" t="s">
-        <v>221</v>
-      </c>
-      <c r="BG35" t="s">
-        <v>220</v>
-      </c>
-      <c r="BH35" t="s">
-        <v>220</v>
-      </c>
-      <c r="BI35" t="s">
-        <v>231</v>
-      </c>
-      <c r="BJ35" t="s">
-        <v>220</v>
-      </c>
-      <c r="BK35" t="s">
-        <v>237</v>
-      </c>
-      <c r="BL35" t="s">
-        <v>233</v>
-      </c>
-      <c r="BM35" t="s">
-        <v>237</v>
-      </c>
       <c r="BN35" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="BO35" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="BP35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BQ35" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="BR35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BS35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BT35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BU35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BV35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BW35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BX35" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="BY35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BZ35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CA35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CB35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CC35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CD35" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="CE35" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="CF35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CG35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CH35" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="CI35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CJ35" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="CK35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CL35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CM35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CN35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CO35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CP35" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="CQ35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CR35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CS35" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="CT35" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="CU35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CV35" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="CW35" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CX35" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F36" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J36" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" t="s">
+        <v>215</v>
+      </c>
+      <c r="L36" t="s">
+        <v>226</v>
+      </c>
+      <c r="M36" t="s">
+        <v>219</v>
+      </c>
+      <c r="N36" t="s">
+        <v>215</v>
+      </c>
+      <c r="O36" t="s">
+        <v>232</v>
+      </c>
+      <c r="P36" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>217</v>
+      </c>
+      <c r="R36" t="s">
+        <v>215</v>
+      </c>
+      <c r="S36" t="s">
+        <v>216</v>
+      </c>
+      <c r="T36" t="s">
+        <v>215</v>
+      </c>
+      <c r="U36" t="s">
+        <v>215</v>
+      </c>
+      <c r="V36" t="s">
+        <v>215</v>
+      </c>
+      <c r="W36" t="s">
+        <v>216</v>
+      </c>
+      <c r="X36" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>216</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>230</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD36" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF36" t="s">
         <v>240</v>
       </c>
-      <c r="K36" t="s">
-        <v>220</v>
-      </c>
-      <c r="L36" t="s">
-        <v>231</v>
-      </c>
-      <c r="M36" t="s">
-        <v>224</v>
-      </c>
-      <c r="N36" t="s">
-        <v>220</v>
-      </c>
-      <c r="O36" t="s">
-        <v>237</v>
-      </c>
-      <c r="P36" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>222</v>
-      </c>
-      <c r="R36" t="s">
-        <v>220</v>
-      </c>
-      <c r="S36" t="s">
-        <v>221</v>
-      </c>
-      <c r="T36" t="s">
-        <v>220</v>
-      </c>
-      <c r="U36" t="s">
-        <v>220</v>
-      </c>
-      <c r="V36" t="s">
-        <v>220</v>
-      </c>
-      <c r="W36" t="s">
-        <v>221</v>
-      </c>
-      <c r="X36" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF36" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AP36" t="s">
-        <v>238</v>
-      </c>
-      <c r="AQ36" t="s">
-        <v>222</v>
-      </c>
-      <c r="AR36" t="s">
-        <v>231</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>231</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>233</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>221</v>
-      </c>
-      <c r="AW36" t="s">
-        <v>222</v>
-      </c>
-      <c r="AX36" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY36" t="s">
-        <v>233</v>
-      </c>
-      <c r="AZ36" t="s">
-        <v>241</v>
-      </c>
-      <c r="BA36" t="s">
-        <v>220</v>
-      </c>
-      <c r="BB36" t="s">
-        <v>220</v>
-      </c>
-      <c r="BC36" t="s">
-        <v>220</v>
-      </c>
-      <c r="BD36" t="s">
-        <v>221</v>
-      </c>
-      <c r="BE36" t="s">
-        <v>247</v>
-      </c>
-      <c r="BF36" t="s">
-        <v>245</v>
-      </c>
       <c r="BG36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="BH36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BI36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BJ36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BK36" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="BL36" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="BM36" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="BN36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BO36" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="BP36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BQ36" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="BR36" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="BS36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BT36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BU36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BV36" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="BW36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BX36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="BY36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BZ36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CA36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CB36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CC36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CD36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="CE36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CF36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CG36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CH36" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="CI36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CJ36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="CK36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="CL36" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="CM36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CN36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="CO36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CP36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CQ36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CR36" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="CS36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CT36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CU36" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="CV36" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="CW36" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CX36" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" t="s">
+        <v>215</v>
+      </c>
+      <c r="G37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I37" t="s">
+        <v>215</v>
+      </c>
+      <c r="J37" t="s">
+        <v>215</v>
+      </c>
+      <c r="K37" t="s">
+        <v>215</v>
+      </c>
+      <c r="L37" t="s">
+        <v>215</v>
+      </c>
+      <c r="M37" t="s">
+        <v>215</v>
+      </c>
+      <c r="N37" t="s">
+        <v>215</v>
+      </c>
+      <c r="O37" t="s">
+        <v>237</v>
+      </c>
+      <c r="P37" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>215</v>
+      </c>
+      <c r="R37" t="s">
+        <v>222</v>
+      </c>
+      <c r="S37" t="s">
+        <v>215</v>
+      </c>
+      <c r="T37" t="s">
+        <v>215</v>
+      </c>
+      <c r="U37" t="s">
+        <v>215</v>
+      </c>
+      <c r="V37" t="s">
+        <v>215</v>
+      </c>
+      <c r="W37" t="s">
+        <v>215</v>
+      </c>
+      <c r="X37" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>215</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BK37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BL37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BM37" t="s">
+        <v>232</v>
+      </c>
+      <c r="BN37" t="s">
+        <v>258</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BP37" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BR37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BS37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BU37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>215</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CB37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CC37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CD37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CE37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CF37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CG37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CH37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CI37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CJ37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CK37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CL37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CM37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CP37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CQ37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CR37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CS37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CT37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU37" t="s">
+        <v>215</v>
+      </c>
+      <c r="CV37" t="s">
         <v>216</v>
       </c>
-      <c r="B37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F37" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" t="s">
-        <v>220</v>
-      </c>
-      <c r="H37" t="s">
-        <v>220</v>
-      </c>
-      <c r="I37" t="s">
-        <v>220</v>
-      </c>
-      <c r="J37" t="s">
-        <v>220</v>
-      </c>
-      <c r="K37" t="s">
-        <v>220</v>
-      </c>
-      <c r="L37" t="s">
-        <v>220</v>
-      </c>
-      <c r="M37" t="s">
-        <v>220</v>
-      </c>
-      <c r="N37" t="s">
-        <v>220</v>
-      </c>
-      <c r="O37" t="s">
-        <v>242</v>
-      </c>
-      <c r="P37" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>220</v>
-      </c>
-      <c r="R37" t="s">
-        <v>227</v>
-      </c>
-      <c r="S37" t="s">
-        <v>220</v>
-      </c>
-      <c r="T37" t="s">
-        <v>220</v>
-      </c>
-      <c r="U37" t="s">
-        <v>220</v>
-      </c>
-      <c r="V37" t="s">
-        <v>220</v>
-      </c>
-      <c r="W37" t="s">
-        <v>220</v>
-      </c>
-      <c r="X37" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AO37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AP37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AR37" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AT37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AV37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AW37" t="s">
-        <v>248</v>
-      </c>
-      <c r="AX37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AY37" t="s">
-        <v>220</v>
-      </c>
-      <c r="AZ37" t="s">
-        <v>241</v>
-      </c>
-      <c r="BA37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BB37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BC37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BD37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BE37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BF37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BG37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BI37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BJ37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BK37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BM37" t="s">
-        <v>237</v>
-      </c>
-      <c r="BN37" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BP37" t="s">
-        <v>229</v>
-      </c>
-      <c r="BQ37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BR37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BS37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BT37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BU37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BV37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BW37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BX37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BY37" t="s">
-        <v>220</v>
-      </c>
-      <c r="BZ37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CA37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CB37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CC37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CD37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CE37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CF37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CG37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CH37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CI37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CJ37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CL37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CM37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CN37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CO37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CP37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CQ37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CR37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CS37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CT37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CU37" t="s">
-        <v>220</v>
-      </c>
-      <c r="CV37" t="s">
-        <v>221</v>
-      </c>
       <c r="CW37" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CX37" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="G38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="N38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="O38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="R38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="S38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="T38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="U38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="V38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="W38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="X38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Y38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Z38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AA38" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AB38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AC38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AD38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AE38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AF38" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AG38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AH38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AI38" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AJ38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AK38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AL38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AM38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AN38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AO38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AP38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AQ38" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AR38" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AS38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AT38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AU38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AV38" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AW38" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AX38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AY38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AZ38" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="BA38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BB38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BC38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BD38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BE38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BF38" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="BG38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BH38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BI38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BJ38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BK38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BL38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BM38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BN38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BO38" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="BP38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BQ38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BR38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BS38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BT38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BU38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BV38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BW38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BX38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BY38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="BZ38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CA38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CB38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CC38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CD38" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="CE38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CF38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CG38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CH38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CI38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CJ38" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="CK38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CL38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CM38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CN38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CO38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CP38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CQ38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CR38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CS38" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="CT38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CU38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CV38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CW38" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="CX38" t="s">
-        <v>231</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="1:102" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B40">
+        <f>B19-B20</f>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -13204,15 +13213,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -13226,7 +13235,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -13240,7 +13249,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -13255,7 +13264,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -13266,7 +13275,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -13277,7 +13286,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -13288,7 +13297,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -13299,7 +13308,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -13310,7 +13319,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -13321,7 +13330,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -13332,7 +13341,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -13343,7 +13352,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -13354,7 +13363,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -13365,7 +13374,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -13376,7 +13385,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -13387,7 +13396,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>18</v>
@@ -13398,7 +13407,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>19</v>
@@ -13409,7 +13418,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -13420,7 +13429,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>21</v>
@@ -13431,7 +13440,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>22</v>
@@ -13442,7 +13451,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>23</v>
@@ -13453,7 +13462,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>24</v>
@@ -13464,7 +13473,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>25</v>
@@ -13475,7 +13484,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>26</v>
@@ -13486,7 +13495,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>27</v>
@@ -13497,7 +13506,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>29</v>
@@ -13508,7 +13517,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>30</v>
@@ -13519,7 +13528,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>32</v>
@@ -13530,7 +13539,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>35</v>
@@ -13541,7 +13550,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>36</v>
@@ -13552,7 +13561,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>38</v>
@@ -13563,7 +13572,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>40</v>
@@ -13574,7 +13583,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>44</v>
@@ -13585,7 +13594,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>49</v>
@@ -13596,7 +13605,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>53</v>
@@ -13607,7 +13616,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>54</v>
@@ -13618,7 +13627,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>55</v>
@@ -13629,7 +13638,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>56</v>
@@ -13640,7 +13649,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>60</v>
@@ -13651,7 +13660,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>61</v>
@@ -13662,7 +13671,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>71</v>
@@ -13673,7 +13682,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>72</v>
@@ -13684,7 +13693,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>73</v>
@@ -13695,7 +13704,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>74</v>
@@ -13706,7 +13715,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>75</v>
@@ -13717,7 +13726,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>76</v>
@@ -13728,7 +13737,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>77</v>
@@ -13739,7 +13748,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>78</v>
@@ -13750,7 +13759,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>79</v>
@@ -13761,7 +13770,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>80</v>
@@ -13772,7 +13781,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>82</v>
@@ -13783,7 +13792,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>83</v>
@@ -13794,7 +13803,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>85</v>
@@ -13805,7 +13814,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>86</v>
@@ -13816,7 +13825,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B56">
         <v>87</v>
@@ -13827,7 +13836,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B57">
         <v>88</v>
@@ -13838,7 +13847,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B58">
         <v>89</v>
@@ -13849,7 +13858,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B59">
         <v>90</v>
@@ -13860,7 +13869,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B60">
         <v>91</v>
@@ -13871,7 +13880,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>92</v>
@@ -13882,7 +13891,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B62">
         <v>94</v>
@@ -13893,7 +13902,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B63">
         <v>16</v>
@@ -13904,7 +13913,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B64">
         <v>17</v>
@@ -13915,7 +13924,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B65">
         <v>28</v>
@@ -13926,7 +13935,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B66">
         <v>31</v>
@@ -13937,7 +13946,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B67">
         <v>33</v>
@@ -13948,7 +13957,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B68">
         <v>34</v>
@@ -13959,7 +13968,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B69">
         <v>37</v>
@@ -13970,7 +13979,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B70">
         <v>39</v>
@@ -13981,7 +13990,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B71">
         <v>41</v>
@@ -13992,7 +14001,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B72">
         <v>42</v>
@@ -14003,7 +14012,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B73">
         <v>43</v>
@@ -14014,7 +14023,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B74">
         <v>45</v>
@@ -14025,7 +14034,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B75">
         <v>46</v>
@@ -14036,7 +14045,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B76">
         <v>47</v>
@@ -14047,7 +14056,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B77">
         <v>48</v>
@@ -14058,7 +14067,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B78">
         <v>50</v>
@@ -14069,7 +14078,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -14080,7 +14089,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B80">
         <v>52</v>
@@ -14091,7 +14100,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B81">
         <v>57</v>
@@ -14102,7 +14111,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B82">
         <v>58</v>
@@ -14113,7 +14122,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B83">
         <v>59</v>
@@ -14124,7 +14133,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B84">
         <v>62</v>
@@ -14135,7 +14144,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B85">
         <v>63</v>
@@ -14146,7 +14155,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B86">
         <v>64</v>
@@ -14157,7 +14166,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B87">
         <v>65</v>
@@ -14168,7 +14177,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B88">
         <v>66</v>
@@ -14179,7 +14188,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B89">
         <v>67</v>
@@ -14190,7 +14199,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B90">
         <v>68</v>
@@ -14201,7 +14210,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B91">
         <v>69</v>
@@ -14212,7 +14221,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B92">
         <v>70</v>
@@ -14223,7 +14232,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B93">
         <v>81</v>
@@ -14234,7 +14243,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B94">
         <v>84</v>
@@ -14245,7 +14254,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B95">
         <v>93</v>
@@ -14256,7 +14265,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B96">
         <v>96</v>
@@ -14267,7 +14276,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B97">
         <v>97</v>
